--- a/triangle_4.xlsx
+++ b/triangle_4.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,12 +399,45 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>

--- a/triangle_4.xlsx
+++ b/triangle_4.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -410,10 +410,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -421,23 +421,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-      <c r="C5">
         <v>0</v>
       </c>
     </row>

--- a/triangle_4.xlsx
+++ b/triangle_4.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>trajectory_col_center</t>
   </si>
   <si>
     <t>trajectory_row_center</t>
+  </si>
+  <si>
+    <t>total_move</t>
+  </si>
+  <si>
+    <t>total_num</t>
   </si>
   <si>
     <t>len_over_list</t>
@@ -380,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,37 +402,44 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>

--- a/triangle_4.xlsx
+++ b/triangle_4.xlsx
@@ -411,16 +411,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -428,16 +428,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/triangle_4.xlsx
+++ b/triangle_4.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,35 +411,103 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>89</v>
+      </c>
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="B3">
-        <v>51</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>51</v>
-      </c>
-      <c r="E3">
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
